--- a/materials/study_02/templateUNLOCKED.xlsx
+++ b/materials/study_02/templateUNLOCKED.xlsx
@@ -321,21 +321,21 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.72959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -385,21 +385,21 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6"/>
-      <c r="C5" s="6" t="n">
-        <f aca="false">F36</f>
-        <v>3.28950043417514</v>
+      <c r="C5" s="6" t="str">
+        <f aca="false">IFERROR(F36, "")</f>
+        <v/>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">MAX(A:A)-1</f>
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="7" t="str">
         <f aca="false">IFERROR(IF(_xlfn.T.DIST(C5,D5,1) &lt; 0.001, "&lt;.001", _xlfn.T.DIST(C5,D5,1)), "")</f>
-        <v>0.998454980153791</v>
+        <v/>
       </c>
       <c r="F5" s="7" t="str">
         <f aca="false">IFERROR(IF(_xlfn.T.DIST.2T(ABS(C5),D5)&lt;=0.05,"✓", ""), "")</f>
-        <v>✓</v>
+        <v/>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -449,23 +449,13 @@
       <c r="A9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="10" t="n">
-        <f aca="false">E9*2</f>
-        <v>200</v>
-      </c>
-      <c r="C9" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E9" s="12" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" s="12" t="n">
-        <f aca="false">C9*2</f>
-        <v>2</v>
-      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="11" t="n">
         <v>30</v>
       </c>
@@ -477,24 +467,13 @@
       <c r="A10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="n">
-        <f aca="false">E10*2</f>
-        <v>446</v>
-      </c>
-      <c r="C10" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E10" s="12" t="n">
-        <f aca="false">E9+123</f>
-        <v>223</v>
-      </c>
-      <c r="F10" s="12" t="n">
-        <f aca="false">C10*2</f>
-        <v>4</v>
-      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="11" t="n">
         <v>30</v>
       </c>
@@ -506,24 +485,13 @@
       <c r="A11" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="n">
-        <f aca="false">E11*2</f>
-        <v>692</v>
-      </c>
-      <c r="C11" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E11" s="12" t="n">
-        <f aca="false">E10+123</f>
-        <v>346</v>
-      </c>
-      <c r="F11" s="12" t="n">
-        <f aca="false">C11*2</f>
-        <v>4</v>
-      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="11" t="n">
         <v>30</v>
       </c>
@@ -535,24 +503,13 @@
       <c r="A12" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="n">
-        <f aca="false">E12*2</f>
-        <v>938</v>
-      </c>
-      <c r="C12" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E12" s="12" t="n">
-        <f aca="false">E11+123</f>
-        <v>469</v>
-      </c>
-      <c r="F12" s="12" t="n">
-        <f aca="false">C12*2</f>
-        <v>4</v>
-      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="11" t="n">
         <v>30</v>
       </c>
@@ -564,24 +521,13 @@
       <c r="A13" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="10" t="n">
-        <f aca="false">E13*2</f>
-        <v>1184</v>
-      </c>
-      <c r="C13" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E13" s="12" t="n">
-        <f aca="false">E12+123</f>
-        <v>592</v>
-      </c>
-      <c r="F13" s="12" t="n">
-        <f aca="false">C13*2</f>
-        <v>4</v>
-      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="11" t="n">
         <v>30</v>
       </c>
@@ -593,24 +539,13 @@
       <c r="A14" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B14" s="10" t="n">
-        <f aca="false">E14*2</f>
-        <v>1430</v>
-      </c>
-      <c r="C14" s="10" t="n">
-        <v>22</v>
-      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E14" s="12" t="n">
-        <f aca="false">E13+123</f>
-        <v>715</v>
-      </c>
-      <c r="F14" s="12" t="n">
-        <f aca="false">C14*2</f>
-        <v>44</v>
-      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="11" t="n">
         <v>30</v>
       </c>
@@ -622,24 +557,13 @@
       <c r="A15" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="10" t="n">
-        <f aca="false">E15*2</f>
-        <v>1676</v>
-      </c>
-      <c r="C15" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E15" s="12" t="n">
-        <f aca="false">E14+123</f>
-        <v>838</v>
-      </c>
-      <c r="F15" s="12" t="n">
-        <f aca="false">C15*2</f>
-        <v>4</v>
-      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="11" t="n">
         <v>30</v>
       </c>
@@ -651,24 +575,13 @@
       <c r="A16" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B16" s="10" t="n">
-        <f aca="false">E16*2</f>
-        <v>1922</v>
-      </c>
-      <c r="C16" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E16" s="12" t="n">
-        <f aca="false">E15+123</f>
-        <v>961</v>
-      </c>
-      <c r="F16" s="12" t="n">
-        <f aca="false">C16*2</f>
-        <v>4</v>
-      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="11" t="n">
         <v>30</v>
       </c>
@@ -680,24 +593,13 @@
       <c r="A17" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B17" s="10" t="n">
-        <f aca="false">E17*2</f>
-        <v>2168</v>
-      </c>
-      <c r="C17" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E17" s="12" t="n">
-        <f aca="false">E16+123</f>
-        <v>1084</v>
-      </c>
-      <c r="F17" s="12" t="n">
-        <f aca="false">C17*2</f>
-        <v>4</v>
-      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="11" t="n">
         <v>30</v>
       </c>
@@ -709,24 +611,13 @@
       <c r="A18" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B18" s="10" t="n">
-        <f aca="false">E18*2</f>
-        <v>2414</v>
-      </c>
-      <c r="C18" s="10" t="n">
-        <v>22</v>
-      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E18" s="12" t="n">
-        <f aca="false">E17+123</f>
-        <v>1207</v>
-      </c>
-      <c r="F18" s="12" t="n">
-        <f aca="false">C18*2</f>
-        <v>44</v>
-      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="11" t="n">
         <v>30</v>
       </c>
@@ -738,24 +629,13 @@
       <c r="A19" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B19" s="10" t="n">
-        <f aca="false">E19*2</f>
-        <v>2660</v>
-      </c>
-      <c r="C19" s="10" t="n">
-        <v>23</v>
-      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E19" s="12" t="n">
-        <f aca="false">E18+123</f>
-        <v>1330</v>
-      </c>
-      <c r="F19" s="12" t="n">
-        <f aca="false">C19*2</f>
-        <v>46</v>
-      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="11" t="n">
         <v>30</v>
       </c>
@@ -767,24 +647,13 @@
       <c r="A20" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B20" s="10" t="n">
-        <f aca="false">E20*2</f>
-        <v>2906</v>
-      </c>
-      <c r="C20" s="10" t="n">
-        <v>123</v>
-      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E20" s="12" t="n">
-        <f aca="false">E19+123</f>
-        <v>1453</v>
-      </c>
-      <c r="F20" s="12" t="n">
-        <f aca="false">C20*2</f>
-        <v>246</v>
-      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="11" t="n">
         <v>30</v>
       </c>
@@ -796,24 +665,13 @@
       <c r="A21" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B21" s="10" t="n">
-        <f aca="false">E21*2</f>
-        <v>3152</v>
-      </c>
-      <c r="C21" s="10" t="n">
-        <v>12</v>
-      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E21" s="12" t="n">
-        <f aca="false">E20+123</f>
-        <v>1576</v>
-      </c>
-      <c r="F21" s="12" t="n">
-        <f aca="false">C21*2</f>
-        <v>24</v>
-      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="11" t="n">
         <v>30</v>
       </c>
@@ -825,24 +683,13 @@
       <c r="A22" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B22" s="10" t="n">
-        <f aca="false">E22*2</f>
-        <v>3398</v>
-      </c>
-      <c r="C22" s="10" t="n">
-        <v>31</v>
-      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E22" s="12" t="n">
-        <f aca="false">E21+123</f>
-        <v>1699</v>
-      </c>
-      <c r="F22" s="12" t="n">
-        <f aca="false">C22*2</f>
-        <v>62</v>
-      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="11" t="n">
         <v>30</v>
       </c>
@@ -854,24 +701,13 @@
       <c r="A23" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B23" s="10" t="n">
-        <f aca="false">E23*2</f>
-        <v>3644</v>
-      </c>
-      <c r="C23" s="10" t="n">
-        <v>23</v>
-      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E23" s="12" t="n">
-        <f aca="false">E22+123</f>
-        <v>1822</v>
-      </c>
-      <c r="F23" s="12" t="n">
-        <f aca="false">C23*2</f>
-        <v>46</v>
-      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="11" t="n">
         <v>30</v>
       </c>
@@ -883,24 +719,13 @@
       <c r="A24" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B24" s="10" t="n">
-        <f aca="false">E24*2</f>
-        <v>3890</v>
-      </c>
-      <c r="C24" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E24" s="12" t="n">
-        <f aca="false">E23+123</f>
-        <v>1945</v>
-      </c>
-      <c r="F24" s="12" t="n">
-        <f aca="false">C24*2</f>
-        <v>2</v>
-      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="11" t="n">
         <v>30</v>
       </c>
@@ -911,24 +736,13 @@
       <c r="A25" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B25" s="10" t="n">
-        <f aca="false">E25*2</f>
-        <v>4136</v>
-      </c>
-      <c r="C25" s="10" t="n">
-        <v>32</v>
-      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E25" s="12" t="n">
-        <f aca="false">E24+123</f>
-        <v>2068</v>
-      </c>
-      <c r="F25" s="12" t="n">
-        <f aca="false">C25*2</f>
-        <v>64</v>
-      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="11" t="n">
         <v>30</v>
       </c>
@@ -939,24 +753,13 @@
       <c r="A26" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B26" s="10" t="n">
-        <f aca="false">E26*2</f>
-        <v>4382</v>
-      </c>
-      <c r="C26" s="10" t="n">
-        <v>14</v>
-      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E26" s="12" t="n">
-        <f aca="false">E25+123</f>
-        <v>2191</v>
-      </c>
-      <c r="F26" s="12" t="n">
-        <f aca="false">C26*2</f>
-        <v>28</v>
-      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="11" t="n">
         <v>30</v>
       </c>
@@ -967,24 +770,13 @@
       <c r="A27" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B27" s="10" t="n">
-        <f aca="false">E27*2</f>
-        <v>4628</v>
-      </c>
-      <c r="C27" s="10" t="n">
-        <v>3342</v>
-      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E27" s="12" t="n">
-        <f aca="false">E26+123</f>
-        <v>2314</v>
-      </c>
-      <c r="F27" s="12" t="n">
-        <f aca="false">C27*2</f>
-        <v>6684</v>
-      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="11" t="n">
         <v>30</v>
       </c>
@@ -995,24 +787,13 @@
       <c r="A28" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B28" s="10" t="n">
-        <f aca="false">E28*2</f>
-        <v>4874</v>
-      </c>
-      <c r="C28" s="10" t="n">
-        <v>4</v>
-      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E28" s="12" t="n">
-        <f aca="false">E27+123</f>
-        <v>2437</v>
-      </c>
-      <c r="F28" s="12" t="n">
-        <f aca="false">C28*2</f>
-        <v>8</v>
-      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="11" t="n">
         <v>30</v>
       </c>
@@ -1023,24 +804,13 @@
       <c r="A29" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B29" s="10" t="n">
-        <f aca="false">E29*2</f>
-        <v>5120</v>
-      </c>
-      <c r="C29" s="10" t="n">
-        <v>2354</v>
-      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E29" s="12" t="n">
-        <f aca="false">E28+123</f>
-        <v>2560</v>
-      </c>
-      <c r="F29" s="12" t="n">
-        <f aca="false">C29*2</f>
-        <v>4708</v>
-      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="11" t="n">
         <v>30</v>
       </c>
@@ -1051,24 +821,13 @@
       <c r="A30" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="B30" s="10" t="n">
-        <f aca="false">E30*2</f>
-        <v>5366</v>
-      </c>
-      <c r="C30" s="10" t="n">
-        <v>3534</v>
-      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E30" s="12" t="n">
-        <f aca="false">E29+123</f>
-        <v>2683</v>
-      </c>
-      <c r="F30" s="12" t="n">
-        <f aca="false">C30*2</f>
-        <v>7068</v>
-      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="11" t="n">
         <v>30</v>
       </c>
@@ -1079,24 +838,13 @@
       <c r="A31" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B31" s="10" t="n">
-        <f aca="false">E31*2</f>
-        <v>5612</v>
-      </c>
-      <c r="C31" s="10" t="n">
-        <v>6</v>
-      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E31" s="12" t="n">
-        <f aca="false">E30+123</f>
-        <v>2806</v>
-      </c>
-      <c r="F31" s="12" t="n">
-        <f aca="false">C31*2</f>
-        <v>12</v>
-      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="11" t="n">
         <v>30</v>
       </c>
@@ -1107,24 +855,13 @@
       <c r="A32" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="B32" s="10" t="n">
-        <f aca="false">E32*2</f>
-        <v>5858</v>
-      </c>
-      <c r="C32" s="10" t="n">
-        <v>6</v>
-      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E32" s="12" t="n">
-        <f aca="false">E31+123</f>
-        <v>2929</v>
-      </c>
-      <c r="F32" s="12" t="n">
-        <f aca="false">C32*2</f>
-        <v>12</v>
-      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="11" t="n">
         <v>30</v>
       </c>
@@ -1135,24 +872,13 @@
       <c r="A33" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="B33" s="10" t="n">
-        <f aca="false">E33*2</f>
-        <v>6104</v>
-      </c>
-      <c r="C33" s="10" t="n">
-        <v>45</v>
-      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E33" s="12" t="n">
-        <f aca="false">E32+123</f>
-        <v>3052</v>
-      </c>
-      <c r="F33" s="12" t="n">
-        <f aca="false">C33*2</f>
-        <v>90</v>
-      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="11" t="n">
         <v>30</v>
       </c>
@@ -1173,59 +899,59 @@
     <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="n">
         <f aca="false">SQRT(((D9-1)*C9^2+(G9-1)*F9^2)/(D9+G9-2))</f>
-        <v>1.58113883008419</v>
+        <v>0</v>
       </c>
       <c r="C36" s="0" t="n">
         <f aca="false">B9-E9</f>
-        <v>100</v>
-      </c>
-      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="e">
         <f aca="false">C36/B36</f>
-        <v>63.2455532033676</v>
-      </c>
-      <c r="E36" s="0" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="0" t="e">
         <f aca="false">AVERAGE(D36:D60)</f>
-        <v>166.473163388565</v>
-      </c>
-      <c r="F36" s="0" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="0" t="e">
         <f aca="false">E36/F37</f>
-        <v>3.28950043417514</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="n">
         <f aca="false">SQRT(((D10-1)*C10^2+(G10-1)*F10^2)/(D10+G10-2))</f>
-        <v>3.16227766016838</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">B10-E10</f>
-        <v>223</v>
-      </c>
-      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="e">
         <f aca="false">C37/B37</f>
-        <v>70.5187918217549</v>
-      </c>
-      <c r="E37" s="0" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="0" t="e">
         <f aca="false">STDEV(D36:D60)</f>
-        <v>253.037150655232</v>
-      </c>
-      <c r="F37" s="0" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="0" t="e">
         <f aca="false">E37/E38</f>
-        <v>50.6074301310464</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="n">
         <f aca="false">SQRT(((D11-1)*C11^2+(G11-1)*F11^2)/(D11+G11-2))</f>
-        <v>3.16227766016838</v>
+        <v>0</v>
       </c>
       <c r="C38" s="0" t="n">
         <f aca="false">B11-E11</f>
-        <v>346</v>
-      </c>
-      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="e">
         <f aca="false">C38/B38</f>
-        <v>109.414807041826</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E38" s="0" t="n">
         <f aca="false">SQRT(25)</f>
@@ -1235,309 +961,309 @@
     <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="n">
         <f aca="false">SQRT(((D12-1)*C12^2+(G12-1)*F12^2)/(D12+G12-2))</f>
-        <v>3.16227766016838</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0" t="n">
         <f aca="false">B12-E12</f>
-        <v>469</v>
-      </c>
-      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="e">
         <f aca="false">C39/B39</f>
-        <v>148.310822261897</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="n">
         <f aca="false">SQRT(((D13-1)*C13^2+(G13-1)*F13^2)/(D13+G13-2))</f>
-        <v>3.16227766016838</v>
+        <v>0</v>
       </c>
       <c r="C40" s="0" t="n">
         <f aca="false">B13-E13</f>
-        <v>592</v>
-      </c>
-      <c r="D40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="e">
         <f aca="false">C40/B40</f>
-        <v>187.206837481968</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="n">
         <f aca="false">SQRT(((D14-1)*C14^2+(G14-1)*F14^2)/(D14+G14-2))</f>
-        <v>34.7850542618522</v>
+        <v>0</v>
       </c>
       <c r="C41" s="0" t="n">
         <f aca="false">B14-E14</f>
-        <v>715</v>
-      </c>
-      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0" t="e">
         <f aca="false">C41/B41</f>
-        <v>20.5548047910945</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="n">
         <f aca="false">SQRT(((D15-1)*C15^2+(G15-1)*F15^2)/(D15+G15-2))</f>
-        <v>3.16227766016838</v>
+        <v>0</v>
       </c>
       <c r="C42" s="0" t="n">
         <f aca="false">B15-E15</f>
-        <v>838</v>
-      </c>
-      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="e">
         <f aca="false">C42/B42</f>
-        <v>264.99886792211</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="n">
         <f aca="false">SQRT(((D16-1)*C16^2+(G16-1)*F16^2)/(D16+G16-2))</f>
-        <v>3.16227766016838</v>
+        <v>0</v>
       </c>
       <c r="C43" s="0" t="n">
         <f aca="false">B16-E16</f>
-        <v>961</v>
-      </c>
-      <c r="D43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="0" t="e">
         <f aca="false">C43/B43</f>
-        <v>303.894883142181</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="n">
         <f aca="false">SQRT(((D17-1)*C17^2+(G17-1)*F17^2)/(D17+G17-2))</f>
-        <v>3.16227766016838</v>
+        <v>0</v>
       </c>
       <c r="C44" s="0" t="n">
         <f aca="false">B17-E17</f>
-        <v>1084</v>
-      </c>
-      <c r="D44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="e">
         <f aca="false">C44/B44</f>
-        <v>342.790898362252</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="n">
         <f aca="false">SQRT(((D18-1)*C18^2+(G18-1)*F18^2)/(D18+G18-2))</f>
-        <v>34.7850542618522</v>
+        <v>0</v>
       </c>
       <c r="C45" s="0" t="n">
         <f aca="false">B18-E18</f>
-        <v>1207</v>
-      </c>
-      <c r="D45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="0" t="e">
         <f aca="false">C45/B45</f>
-        <v>34.6988103256658</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="n">
         <f aca="false">SQRT(((D19-1)*C19^2+(G19-1)*F19^2)/(D19+G19-2))</f>
-        <v>36.3661930919364</v>
+        <v>0</v>
       </c>
       <c r="C46" s="0" t="n">
         <f aca="false">B19-E19</f>
-        <v>1330</v>
-      </c>
-      <c r="D46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="0" t="e">
         <f aca="false">C46/B46</f>
-        <v>36.5724285915126</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="n">
         <f aca="false">SQRT(((D20-1)*C20^2+(G20-1)*F20^2)/(D20+G20-2))</f>
-        <v>194.480076100355</v>
+        <v>0</v>
       </c>
       <c r="C47" s="0" t="n">
         <f aca="false">B20-E20</f>
-        <v>1453</v>
-      </c>
-      <c r="D47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="0" t="e">
         <f aca="false">C47/B47</f>
-        <v>7.47120234182871</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="n">
         <f aca="false">SQRT(((D21-1)*C21^2+(G21-1)*F21^2)/(D21+G21-2))</f>
-        <v>18.9736659610103</v>
+        <v>0</v>
       </c>
       <c r="C48" s="0" t="n">
         <f aca="false">B21-E21</f>
-        <v>1576</v>
-      </c>
-      <c r="D48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="0" t="e">
         <f aca="false">C48/B48</f>
-        <v>83.0624932070894</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="n">
         <f aca="false">SQRT(((D22-1)*C22^2+(G22-1)*F22^2)/(D22+G22-2))</f>
-        <v>49.0153037326099</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
         <f aca="false">B22-E22</f>
-        <v>1699</v>
-      </c>
-      <c r="D49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="0" t="e">
         <f aca="false">C49/B49</f>
-        <v>34.6626435137166</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="n">
         <f aca="false">SQRT(((D23-1)*C23^2+(G23-1)*F23^2)/(D23+G23-2))</f>
-        <v>36.3661930919364</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0" t="n">
         <f aca="false">B23-E23</f>
-        <v>1822</v>
-      </c>
-      <c r="D50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="0" t="e">
         <f aca="false">C50/B50</f>
-        <v>50.1014773637112</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="n">
         <f aca="false">SQRT(((D24-1)*C24^2+(G24-1)*F24^2)/(D24+G24-2))</f>
-        <v>1.58113883008419</v>
+        <v>0</v>
       </c>
       <c r="C51" s="0" t="n">
         <f aca="false">B24-E24</f>
-        <v>1945</v>
-      </c>
-      <c r="D51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="0" t="e">
         <f aca="false">C51/B51</f>
-        <v>1230.1260098055</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="n">
         <f aca="false">SQRT(((D25-1)*C25^2+(G25-1)*F25^2)/(D25+G25-2))</f>
-        <v>50.5964425626941</v>
+        <v>0</v>
       </c>
       <c r="C52" s="0" t="n">
         <f aca="false">B25-E25</f>
-        <v>2068</v>
-      </c>
-      <c r="D52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="0" t="e">
         <f aca="false">C52/B52</f>
-        <v>40.8724387576763</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="n">
         <f aca="false">SQRT(((D26-1)*C26^2+(G26-1)*F26^2)/(D26+G26-2))</f>
-        <v>22.1359436211787</v>
+        <v>0</v>
       </c>
       <c r="C53" s="0" t="n">
         <f aca="false">B26-E26</f>
-        <v>2191</v>
-      </c>
-      <c r="D53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="0" t="e">
         <f aca="false">C53/B53</f>
-        <v>98.9792907632703</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="n">
         <f aca="false">SQRT(((D27-1)*C27^2+(G27-1)*F27^2)/(D27+G27-2))</f>
-        <v>5284.16597014136</v>
+        <v>0</v>
       </c>
       <c r="C54" s="0" t="n">
         <f aca="false">B27-E27</f>
-        <v>2314</v>
-      </c>
-      <c r="D54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="0" t="e">
         <f aca="false">C54/B54</f>
-        <v>0.437912058984418</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="n">
         <f aca="false">SQRT(((D28-1)*C28^2+(G28-1)*F28^2)/(D28+G28-2))</f>
-        <v>6.32455532033676</v>
+        <v>0</v>
       </c>
       <c r="C55" s="0" t="n">
         <f aca="false">B28-E28</f>
-        <v>2437</v>
-      </c>
-      <c r="D55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="0" t="e">
         <f aca="false">C55/B55</f>
-        <v>385.323532891517</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="n">
         <f aca="false">SQRT(((D29-1)*C29^2+(G29-1)*F29^2)/(D29+G29-2))</f>
-        <v>3722.00080601818</v>
+        <v>0</v>
       </c>
       <c r="C56" s="0" t="n">
         <f aca="false">B29-E29</f>
-        <v>2560</v>
-      </c>
-      <c r="D56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="0" t="e">
         <f aca="false">C56/B56</f>
-        <v>0.687802107904082</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="n">
         <f aca="false">SQRT(((D30-1)*C30^2+(G30-1)*F30^2)/(D30+G30-2))</f>
-        <v>5587.74462551753</v>
+        <v>0</v>
       </c>
       <c r="C57" s="0" t="n">
         <f aca="false">B30-E30</f>
-        <v>2683</v>
-      </c>
-      <c r="D57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="0" t="e">
         <f aca="false">C57/B57</f>
-        <v>0.480157949192516</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="n">
         <f aca="false">SQRT(((D31-1)*C31^2+(G31-1)*F31^2)/(D31+G31-2))</f>
-        <v>9.48683298050514</v>
+        <v>0</v>
       </c>
       <c r="C58" s="0" t="n">
         <f aca="false">B31-E31</f>
-        <v>2806</v>
-      </c>
-      <c r="D58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="0" t="e">
         <f aca="false">C58/B58</f>
-        <v>295.778370481082</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="n">
         <f aca="false">SQRT(((D32-1)*C32^2+(G32-1)*F32^2)/(D32+G32-2))</f>
-        <v>9.48683298050514</v>
+        <v>0</v>
       </c>
       <c r="C59" s="0" t="n">
         <f aca="false">B32-E32</f>
-        <v>2929</v>
-      </c>
-      <c r="D59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="0" t="e">
         <f aca="false">C59/B59</f>
-        <v>308.743708887773</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="n">
         <f aca="false">SQRT(((D33-1)*C33^2+(G33-1)*F33^2)/(D33+G33-2))</f>
-        <v>71.1512473537885</v>
+        <v>0</v>
       </c>
       <c r="C60" s="0" t="n">
         <f aca="false">B33-E33</f>
-        <v>3052</v>
-      </c>
-      <c r="D60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="0" t="e">
         <f aca="false">C60/B60</f>
-        <v>42.8945396392618</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -1570,7 +1296,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,7 +1326,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
